--- a/biology/Botanique/Herbier_Louis-Marie/Herbier_Louis-Marie.xlsx
+++ b/biology/Botanique/Herbier_Louis-Marie/Herbier_Louis-Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Herbier Louis-Marie est situé dans les locaux du Pavillon Charles-Eugène-Marchand de l'Université Laval.  Il contient plus de 790 000 spécimens provenant principalement du Québec[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Herbier Louis-Marie est situé dans les locaux du Pavillon Charles-Eugène-Marchand de l'Université Laval.  Il contient plus de 790 000 spécimens provenant principalement du Québec. 
 </t>
         </is>
       </c>
@@ -511,17 +523,88 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La fondation de l'Herbier Louis-Marie remonte à la création de la Faculté d'agriculture en 1962 et au transfert de l'herbier de l'Institut agricole d'Oka comprenant plus de 75 000 spécimens provenant principalement du travail du père Louis-Marie.  Plusieurs collections vinrent par la suite s'ajouter à cette première[2],[3]. 
-Les plus anciens spécimens remontent toutefois à la fondation de l'Université Laval en 1852. Les tout premiers furent collectionnés par l’abbé Edward John Horan. Par la suite, l'abbé Ovide Brunet enrichit cette collection et créa le Musée de botanique de l'Université Laval vers 1862. S'y adjoignirent plus tard les collections de Michel Joseph Ahern, de Dominique-Napoléon Saint-Cyr, de Joseph Schmitt et de l'abbé Léon Provancher.  Ce n'est qu'en 1994 que cet ensemble, qui logeait entretemps au Musée de l'Amérique française, fut intégré dans l'Herbier Louis-Marie[2],[3].
-Liste des conservateurs
-Lionel Cinq-Mars (1962-1973)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fondation de l'Herbier Louis-Marie remonte à la création de la Faculté d'agriculture en 1962 et au transfert de l'herbier de l'Institut agricole d'Oka comprenant plus de 75 000 spécimens provenant principalement du travail du père Louis-Marie.  Plusieurs collections vinrent par la suite s'ajouter à cette première,. 
+Les plus anciens spécimens remontent toutefois à la fondation de l'Université Laval en 1852. Les tout premiers furent collectionnés par l’abbé Edward John Horan. Par la suite, l'abbé Ovide Brunet enrichit cette collection et créa le Musée de botanique de l'Université Laval vers 1862. S'y adjoignirent plus tard les collections de Michel Joseph Ahern, de Dominique-Napoléon Saint-Cyr, de Joseph Schmitt et de l'abbé Léon Provancher.  Ce n'est qu'en 1994 que cet ensemble, qui logeait entretemps au Musée de l'Amérique française, fut intégré dans l'Herbier Louis-Marie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Herbier_Louis-Marie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herbier_Louis-Marie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des conservateurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lionel Cinq-Mars (1962-1973)
 Robert Gauthier (1973-2004)
 Serge Payette (2004-2021)
-Juan Carlos Villarreal Aguilar (2018-)
-Liste des contributions à l'herbier à partir de sa fondation
-Le nombre entre parenthèses représente les spécimens.
+Juan Carlos Villarreal Aguilar (2018-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Herbier_Louis-Marie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herbier_Louis-Marie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des contributions à l'herbier à partir de sa fondation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nombre entre parenthèses représente les spécimens.
 1962 - Collection de l'Institut d'agriculture d'Oka (Collection du Père Louis-Marie) (79 000)
 1968 - Faculté de Foresterie et de Géodésie (15 000)
 1968 - Faculté des Sciences et de génie, Département de biologie, Alexandre Gagnon (12 500)
